--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_99.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_99.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6838</v>
+        <v>1.8219</v>
       </c>
       <c r="J3" t="n">
-        <v>1.84</v>
+        <v>27.92</v>
       </c>
       <c r="K3" t="n">
-        <v>55.54</v>
+        <v>913.11</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>836.9631000000001</v>
+        <v>879.2123</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5363</v>
+        <v>1.6459</v>
       </c>
       <c r="J4" t="n">
-        <v>1.49</v>
+        <v>11.37</v>
       </c>
       <c r="K4" t="n">
-        <v>41.02</v>
+        <v>336.09</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="R4" t="n">
-        <v>795.5205999999999</v>
+        <v>786.936</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>8.0823</v>
+        <v>8.2531</v>
       </c>
       <c r="J5" t="n">
-        <v>27.24</v>
+        <v>26.56</v>
       </c>
       <c r="K5" t="n">
-        <v>3952.18</v>
+        <v>3935.01</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>12.19</v>
+        <v>11.8</v>
       </c>
       <c r="R5" t="n">
-        <v>3442.565</v>
+        <v>3350.3795</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>9.5817</v>
+        <v>9.980600000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>26.81</v>
+        <v>26.37</v>
       </c>
       <c r="K6" t="n">
-        <v>4612.71</v>
+        <v>4724.32</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.859999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="R6" t="n">
-        <v>2783.9695</v>
+        <v>2870.5759</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3506</v>
+        <v>4.4057</v>
       </c>
       <c r="J7" t="n">
-        <v>31.85</v>
+        <v>32.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2487.8</v>
+        <v>2557.29</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>7.12</v>
+        <v>7.21</v>
       </c>
       <c r="R7" t="n">
-        <v>2011.6733</v>
+        <v>2047.3346</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>49.4606</v>
+        <v>51.6592</v>
       </c>
       <c r="J8" t="n">
-        <v>4.18</v>
+        <v>4.07</v>
       </c>
       <c r="K8" t="n">
-        <v>3714.06</v>
+        <v>3779.34</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>13.13</v>
+        <v>13.03</v>
       </c>
       <c r="R8" t="n">
-        <v>3708.2805</v>
+        <v>3701.0209</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>9.445</v>
+        <v>10.8489</v>
       </c>
       <c r="J9" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="K9" t="n">
-        <v>332.24</v>
+        <v>347.93</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="R9" t="n">
-        <v>258.6952</v>
+        <v>277.4945</v>
       </c>
     </row>
   </sheetData>
